--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,70 +40,91 @@
     <t>name</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>not</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>filters</t>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>filter</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>lid</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>lid</t>
+    <t>after</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
   <si>
     <t>received</t>
@@ -112,52 +133,109 @@
     <t>back</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>doesn</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>small</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>if</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>'</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -187,19 +265,16 @@
     <t>perfectly</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -560,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9292929292929293</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>0.8046875</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9203539823008849</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>0.7849462365591398</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>0.7826086956521739</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8728813559322034</v>
+        <v>0.86</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K6">
-        <v>0.7084745762711865</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.86</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>0.6749226006191951</v>
+        <v>0.5913312693498453</v>
       </c>
       <c r="L7">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="M7">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>210</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8082191780821918</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>0.5411255411255411</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M8">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="K9">
         <v>0.4805194805194805</v>
@@ -979,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7783783783783784</v>
+        <v>0.825</v>
       </c>
       <c r="C10">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>0.3552631578947368</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>0.3150684931506849</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7547169811320755</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,16 +1175,16 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.2914285714285714</v>
+        <v>0.1613162118780096</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>124</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7272727272727273</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>0.2252252252252252</v>
+        <v>0.05205479452054795</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>86</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.704225352112676</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,31 +1272,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="K14">
-        <v>0.2072289156626506</v>
+        <v>0.01830443159922929</v>
       </c>
       <c r="L14">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>987</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6911764705882353</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,31 +1322,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15">
-        <v>0.1191780821917808</v>
-      </c>
-      <c r="L15">
-        <v>87</v>
-      </c>
-      <c r="M15">
-        <v>87</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>643</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6444444444444445</v>
+        <v>0.5994708994708995</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>1133</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>1133</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1305,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6282051282051282</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1323,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1331,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6226415094339622</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C18">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1349,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1357,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6222222222222222</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1375,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1383,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5945945945945946</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C20">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1401,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1409,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5897435897435898</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="C21">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1427,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1435,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5517241379310345</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1453,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1461,13 +1512,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5426356589147286</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1479,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1487,13 +1538,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5132743362831859</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1505,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1513,13 +1564,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1531,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1539,13 +1590,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4038461538461539</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1557,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1565,13 +1616,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3786407766990291</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1583,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1591,13 +1642,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3463687150837989</v>
+        <v>0.3702702702702703</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1609,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>117</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1617,13 +1668,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.288659793814433</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1635,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1643,13 +1694,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.285</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C30">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1661,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1669,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2424242424242424</v>
+        <v>0.2788104089219331</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1687,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1695,13 +1746,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2380952380952381</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1713,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1721,13 +1772,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2048517520215633</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="C33">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1739,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>295</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1747,13 +1798,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1862068965517241</v>
+        <v>0.2622222222222222</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1765,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>118</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1773,13 +1824,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1761904761904762</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1791,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>173</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1799,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.152317880794702</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1817,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>128</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1825,13 +1876,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1496598639455782</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1843,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>250</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1851,13 +1902,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1074829931972789</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="C38">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1869,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>656</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1877,13 +1928,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0802675585284281</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1895,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>275</v>
+        <v>969</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1903,25 +1954,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07441253263707572</v>
+        <v>0.1266846361185984</v>
       </c>
       <c r="C40">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>709</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1929,13 +1980,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.05365853658536585</v>
+        <v>0.125</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1947,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>388</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1955,25 +2006,701 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.02166377816291161</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="C42">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.1047619047619048</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.06720430107526881</v>
+      </c>
+      <c r="C44">
         <v>25</v>
       </c>
-      <c r="D42">
-        <v>28</v>
-      </c>
-      <c r="E42">
-        <v>0.11</v>
-      </c>
-      <c r="F42">
-        <v>0.89</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1129</v>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.06367432150313153</v>
+      </c>
+      <c r="C45">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>61</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.06343283582089553</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.05491105955143078</v>
+      </c>
+      <c r="C47">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>71</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.05161290322580645</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>39</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.04897959183673469</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.04416809605488851</v>
+      </c>
+      <c r="C51">
+        <v>103</v>
+      </c>
+      <c r="D51">
+        <v>103</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.0392662219526986</v>
+      </c>
+      <c r="C52">
+        <v>259</v>
+      </c>
+      <c r="D52">
+        <v>263</v>
+      </c>
+      <c r="E52">
+        <v>0.02</v>
+      </c>
+      <c r="F52">
+        <v>0.98</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.03873552983081033</v>
+      </c>
+      <c r="C53">
+        <v>261</v>
+      </c>
+      <c r="D53">
+        <v>268</v>
+      </c>
+      <c r="E53">
+        <v>0.03</v>
+      </c>
+      <c r="F53">
+        <v>0.97</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>6477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.03800140745953554</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>0.02</v>
+      </c>
+      <c r="F54">
+        <v>0.98</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.03054448871181939</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55">
+        <v>0.04</v>
+      </c>
+      <c r="F55">
+        <v>0.96</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.03013392857142857</v>
+      </c>
+      <c r="C56">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.02941879933030376</v>
+      </c>
+      <c r="C57">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>125</v>
+      </c>
+      <c r="E57">
+        <v>0.02</v>
+      </c>
+      <c r="F57">
+        <v>0.98</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.02883317261330762</v>
+      </c>
+      <c r="C58">
+        <v>299</v>
+      </c>
+      <c r="D58">
+        <v>311</v>
+      </c>
+      <c r="E58">
+        <v>0.04</v>
+      </c>
+      <c r="F58">
+        <v>0.96</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.02792022792022792</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.02394636015325671</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>0.04</v>
+      </c>
+      <c r="F60">
+        <v>0.96</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.02288135593220339</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>27</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.02143041569842499</v>
+      </c>
+      <c r="C62">
+        <v>83</v>
+      </c>
+      <c r="D62">
+        <v>88</v>
+      </c>
+      <c r="E62">
+        <v>0.06</v>
+      </c>
+      <c r="F62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.01914823374050842</v>
+      </c>
+      <c r="C63">
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <v>59</v>
+      </c>
+      <c r="E63">
+        <v>0.02</v>
+      </c>
+      <c r="F63">
+        <v>0.98</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.01878538342768914</v>
+      </c>
+      <c r="C64">
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <v>74</v>
+      </c>
+      <c r="E64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>0.99</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.0160377358490566</v>
+      </c>
+      <c r="C65">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>56</v>
+      </c>
+      <c r="E65">
+        <v>0.09</v>
+      </c>
+      <c r="F65">
+        <v>0.91</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.01387114436941048</v>
+      </c>
+      <c r="C66">
+        <v>76</v>
+      </c>
+      <c r="D66">
+        <v>86</v>
+      </c>
+      <c r="E66">
+        <v>0.12</v>
+      </c>
+      <c r="F66">
+        <v>0.88</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>0.03</v>
+      </c>
+      <c r="F67">
+        <v>0.97</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.008323699421965317</v>
+      </c>
+      <c r="C68">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>0.27</v>
+      </c>
+      <c r="F68">
+        <v>0.73</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>4289</v>
       </c>
     </row>
   </sheetData>
